--- a/Data/Transitions/19581966Translation.xlsx
+++ b/Data/Transitions/19581966Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="645">
   <si>
     <t>id</t>
   </si>
@@ -466,7 +466,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -667,7 +667,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1745,9 +1745,6 @@
   </si>
   <si>
     <t>{237.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3951,7 +3948,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>577</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3962,7 +3959,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3973,7 +3970,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4160,7 +4157,7 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4171,7 +4168,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4226,7 +4223,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4369,7 +4366,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4380,7 +4377,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4501,7 +4498,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4545,7 +4542,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4567,7 +4564,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4688,7 +4685,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>577</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4743,7 +4740,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4908,7 +4905,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4963,7 +4960,7 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5062,7 +5059,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5128,7 +5125,7 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5172,7 +5169,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5194,7 +5191,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5205,7 +5202,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5216,7 +5213,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5370,7 +5367,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5425,7 +5422,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5513,7 +5510,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5524,7 +5521,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5689,7 +5686,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5722,7 +5719,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5744,7 +5741,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5788,7 +5785,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5810,7 +5807,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5854,7 +5851,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5909,7 +5906,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5942,7 +5939,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6063,7 +6060,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6074,7 +6071,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6118,7 +6115,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6140,7 +6137,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6151,7 +6148,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6250,7 +6247,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6360,7 +6357,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6470,7 +6467,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6481,7 +6478,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6492,7 +6489,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6646,7 +6643,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6657,7 +6654,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6877,7 +6874,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7185,7 +7182,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7240,7 +7237,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7262,7 +7259,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7284,7 +7281,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7317,7 +7314,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7339,7 +7336,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7350,7 +7347,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7361,7 +7358,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7394,7 +7391,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7581,7 +7578,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7614,7 +7611,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7658,7 +7655,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7691,7 +7688,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7812,7 +7809,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7856,7 +7853,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7944,7 +7941,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7977,7 +7974,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8010,7 +8007,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8098,7 +8095,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8120,7 +8117,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8142,7 +8139,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8153,7 +8150,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8175,7 +8172,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8197,7 +8194,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="536" spans="1:3">
